--- a/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
+++ b/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56D3440-ACC5-498B-9E0C-DC681858FEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC6CEE-7E1D-416A-A2FE-DB7872A21FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="FMC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -390,9 +389,6 @@
     <t>1:26.27</t>
   </si>
   <si>
-    <t>will load video on Monday</t>
-  </si>
-  <si>
     <t>Aaron Cumes</t>
   </si>
   <si>
@@ -659,12 +655,15 @@
   <si>
     <t>🥉</t>
   </si>
+  <si>
+    <t>https://www.facebook.com/events/805797596592397/permalink/810222906149866/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -774,6 +773,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -798,10 +803,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,8 +938,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1152,8 +1160,8 @@
   </sheetPr>
   <dimension ref="A1:L1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1239,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>18</v>
@@ -1248,7 +1256,7 @@
         <v>13.73</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" s="19">
         <v>15.99</v>
@@ -1316,7 +1324,7 @@
         <v>14.53</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="19">
         <v>14.55</v>
@@ -1351,7 +1359,7 @@
         <v>15.64</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="19">
         <v>14.75</v>
@@ -1386,7 +1394,7 @@
         <v>18.48</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="19">
         <v>18.55</v>
@@ -1676,7 +1684,7 @@
         <v>19.77</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75">
@@ -1684,7 +1692,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>19</v>
@@ -1708,7 +1716,7 @@
         <v>21.96</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -1716,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>18</v>
@@ -1740,7 +1748,7 @@
         <v>24.61</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1748,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>19</v>
@@ -1772,7 +1780,7 @@
         <v>23.6</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -1807,7 +1815,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1815,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>19</v>
@@ -1839,7 +1847,7 @@
         <v>26.02</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1847,7 +1855,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>19</v>
@@ -1871,7 +1879,7 @@
         <v>27.27</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1906,7 +1914,7 @@
         <v>27.3</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1914,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>19</v>
@@ -1941,7 +1949,7 @@
         <v>31.57</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1949,7 +1957,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>35</v>
@@ -1973,7 +1981,7 @@
         <v>32.08</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -1981,7 +1989,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>35</v>
@@ -2005,7 +2013,7 @@
         <v>37.72</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -2013,13 +2021,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>30</v>
@@ -2034,13 +2042,13 @@
         <v>39.49</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>24</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
@@ -13431,7 +13439,7 @@
   <dimension ref="A1:L1039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13517,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>18</v>
@@ -13526,7 +13534,7 @@
         <v>4.55</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="19">
         <v>4.6900000000000004</v>
@@ -13561,7 +13569,7 @@
         <v>5.08</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="19">
         <v>5.96</v>
@@ -13596,7 +13604,7 @@
         <v>5.17</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="19">
         <v>4.6399999999999997</v>
@@ -13663,7 +13671,7 @@
         <v>5.83</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="19">
         <v>5.09</v>
@@ -13894,7 +13902,7 @@
         <v>4.83</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -13927,7 +13935,7 @@
         <v>10.85</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -13935,7 +13943,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>19</v>
@@ -13962,7 +13970,7 @@
         <v>4.76</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75">
@@ -13970,7 +13978,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>19</v>
@@ -13994,7 +14002,7 @@
         <v>9.85</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -14002,7 +14010,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>19</v>
@@ -14029,7 +14037,7 @@
         <v>11.32</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -14037,7 +14045,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>35</v>
@@ -14061,7 +14069,7 @@
         <v>13.71</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -14069,7 +14077,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>19</v>
@@ -14096,7 +14104,7 @@
         <v>16.28</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -20481,6 +20489,7 @@
     <hyperlink ref="K20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -20492,7 +20501,7 @@
   <dimension ref="A1:L1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20587,7 +20596,7 @@
         <v>53.3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="17">
         <v>48.44</v>
@@ -20649,7 +20658,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>18</v>
@@ -20692,7 +20701,7 @@
         <v>56.44</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="15">
         <v>50.41</v>
@@ -20727,7 +20736,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>52</v>
@@ -20953,8 +20962,8 @@
       <c r="J14" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>121</v>
+      <c r="K14" s="58" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -20962,34 +20971,34 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="I15" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="J15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -21003,31 +21012,31 @@
         <v>35</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="K16" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="21" t="s">
-        <v>140</v>
-      </c>
       <c r="L16" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
@@ -21035,31 +21044,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -21067,7 +21076,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>19</v>
@@ -21079,22 +21088,22 @@
         <v>30</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
@@ -21112,22 +21121,22 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="H19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
@@ -21135,7 +21144,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>19</v>
@@ -21147,22 +21156,22 @@
         <v>30</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="H20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -21170,7 +21179,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>35</v>
@@ -21179,22 +21188,22 @@
         <v>24</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="H21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -28467,8 +28476,10 @@
     <hyperlink ref="K19" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
     <hyperlink ref="K20" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
     <hyperlink ref="K21" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="K14" r:id="rId17" xr:uid="{6D75F72E-0D0B-4E53-9885-FD2FC35AC17F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -28479,8 +28490,8 @@
   </sheetPr>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="A3:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -28496,7 +28507,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>3</v>
@@ -28525,16 +28536,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>187</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -28542,7 +28553,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>18</v>
@@ -28551,10 +28562,10 @@
         <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -28571,10 +28582,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -28582,7 +28593,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>35</v>
@@ -28591,10 +28602,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -28602,7 +28613,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>18</v>
@@ -28614,7 +28625,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -28631,7 +28642,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -28639,7 +28650,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>35</v>
@@ -28648,10 +28659,10 @@
         <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -28669,7 +28680,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75">
@@ -28687,7 +28698,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75">
@@ -33655,5 +33666,6 @@
     <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
+++ b/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC6CEE-7E1D-416A-A2FE-DB7872A21FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3305083E-4531-49CF-9048-8E5F45F4D5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,20 @@
     <sheet name="4x4x4" sheetId="3" r:id="rId3"/>
     <sheet name="FMC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="213">
   <si>
     <t>4x4x4</t>
   </si>
@@ -658,6 +666,12 @@
   <si>
     <t>https://www.facebook.com/events/805797596592397/permalink/810222906149866/</t>
   </si>
+  <si>
+    <t>David Burchill</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/196320811461109/permalink/200026074423916/</t>
+  </si>
 </sst>
 </file>
 
@@ -807,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,9 +950,14 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1158,10 +1177,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L1059"/>
+  <dimension ref="A1:L1060"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2016,43 +2035,75 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75">
-      <c r="A27" s="33">
+    <row r="27" spans="1:11" s="56" customFormat="1" ht="12.75">
+      <c r="A27" s="32">
         <v>24</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="61">
+        <v>47.4</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="58">
+        <v>51.1</v>
+      </c>
+      <c r="G27" s="58">
+        <v>38.22</v>
+      </c>
+      <c r="H27" s="58">
+        <v>28.5</v>
+      </c>
+      <c r="I27" s="58">
+        <v>62.78</v>
+      </c>
+      <c r="J27" s="58">
+        <v>52.9</v>
+      </c>
+      <c r="K27" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75">
+      <c r="A28" s="33">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D28" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="19">
         <v>55.58</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G28" s="19">
         <v>57</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="19">
         <v>39.49</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I28" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K28" s="21" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="12.75">
-      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="12.75">
       <c r="A29" s="22"/>
@@ -2067,48 +2118,39 @@
       <c r="A32" s="22"/>
     </row>
     <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="32"/>
+      <c r="A33" s="22"/>
     </row>
     <row r="34" spans="1:10" ht="12.75">
       <c r="A34" s="32"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="14"/>
+      <c r="A35" s="32"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="12.75">
       <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="14"/>
       <c r="B37" s="16"/>
       <c r="C37" s="14"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="37"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
@@ -2119,7 +2161,7 @@
       <c r="B38" s="16"/>
       <c r="C38" s="14"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="37"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -2130,7 +2172,7 @@
       <c r="A39" s="14"/>
       <c r="B39" s="16"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="25"/>
       <c r="F39" s="37"/>
       <c r="G39" s="17"/>
@@ -2154,7 +2196,7 @@
       <c r="A41" s="14"/>
       <c r="B41" s="16"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="17"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="25"/>
       <c r="F41" s="37"/>
       <c r="G41" s="17"/>
@@ -2167,7 +2209,7 @@
       <c r="B42" s="16"/>
       <c r="C42" s="14"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="35"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="37"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -2179,7 +2221,7 @@
       <c r="B43" s="16"/>
       <c r="C43" s="14"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="25"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="37"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -2203,7 +2245,7 @@
       <c r="B45" s="16"/>
       <c r="C45" s="14"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="35"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="37"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2251,7 +2293,7 @@
       <c r="B49" s="16"/>
       <c r="C49" s="14"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="25"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="37"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2348,7 +2390,7 @@
       <c r="C57" s="14"/>
       <c r="D57" s="17"/>
       <c r="E57" s="25"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -2368,10 +2410,11 @@
     </row>
     <row r="59" spans="1:10" ht="12.75">
       <c r="A59" s="14"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="14"/>
       <c r="D59" s="17"/>
       <c r="E59" s="25"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -2379,11 +2422,10 @@
     </row>
     <row r="60" spans="1:10" ht="12.75">
       <c r="A60" s="14"/>
-      <c r="B60" s="16"/>
       <c r="C60" s="14"/>
       <c r="D60" s="17"/>
       <c r="E60" s="25"/>
-      <c r="F60" s="17"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -2402,7 +2444,7 @@
       <c r="J61" s="17"/>
     </row>
     <row r="62" spans="1:10" ht="12.75">
-      <c r="A62" s="13"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="16"/>
       <c r="C62" s="14"/>
       <c r="D62" s="17"/>
@@ -2438,7 +2480,7 @@
       <c r="J64" s="17"/>
     </row>
     <row r="65" spans="1:10" ht="12.75">
-      <c r="A65" s="14"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="16"/>
       <c r="C65" s="14"/>
       <c r="D65" s="17"/>
@@ -2465,7 +2507,7 @@
       <c r="A67" s="14"/>
       <c r="B67" s="16"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="23"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="25"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -2473,27 +2515,27 @@
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" ht="14.25">
-      <c r="A68" s="22"/>
+    <row r="68" spans="1:10" ht="12.75">
+      <c r="A68" s="14"/>
       <c r="B68" s="16"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" ht="12.75">
-      <c r="A69" s="14"/>
+    <row r="69" spans="1:10" ht="14.25">
+      <c r="A69" s="22"/>
       <c r="B69" s="16"/>
       <c r="C69" s="14"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
     </row>
@@ -2502,10 +2544,10 @@
       <c r="B70" s="16"/>
       <c r="C70" s="14"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
     </row>
@@ -2515,7 +2557,7 @@
       <c r="C71" s="14"/>
       <c r="D71" s="17"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="20"/>
+      <c r="F71" s="46"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="17"/>
@@ -2526,10 +2568,10 @@
       <c r="B72" s="16"/>
       <c r="C72" s="14"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
     </row>
@@ -2550,10 +2592,10 @@
       <c r="B74" s="16"/>
       <c r="C74" s="14"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
     </row>
@@ -2574,10 +2616,10 @@
       <c r="B76" s="16"/>
       <c r="C76" s="14"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
     </row>
@@ -2610,10 +2652,10 @@
       <c r="B79" s="16"/>
       <c r="C79" s="14"/>
       <c r="D79" s="17"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
     </row>
@@ -2622,10 +2664,10 @@
       <c r="B80" s="16"/>
       <c r="C80" s="14"/>
       <c r="D80" s="17"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
     </row>
@@ -2634,23 +2676,24 @@
       <c r="B81" s="16"/>
       <c r="C81" s="14"/>
       <c r="D81" s="17"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
     </row>
     <row r="82" spans="1:10" ht="12.75">
-      <c r="A82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
     </row>
     <row r="83" spans="1:10" ht="12.75">
       <c r="A83" s="22"/>
@@ -13398,6 +13441,17 @@
       <c r="H1059" s="43"/>
       <c r="I1059" s="43"/>
       <c r="J1059" s="43"/>
+    </row>
+    <row r="1060" spans="1:10" ht="12.75">
+      <c r="A1060" s="22"/>
+      <c r="C1060" s="22"/>
+      <c r="D1060" s="43"/>
+      <c r="E1060" s="22"/>
+      <c r="F1060" s="43"/>
+      <c r="G1060" s="43"/>
+      <c r="H1060" s="43"/>
+      <c r="I1060" s="43"/>
+      <c r="J1060" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13424,10 +13478,11 @@
     <hyperlink ref="K24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="K25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="K26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K27" r:id="rId25" xr:uid="{02758E41-12C6-4EA8-BB59-E4133D2F037F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -20962,7 +21017,7 @@
       <c r="J14" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="57" t="s">
         <v>210</v>
       </c>
     </row>
@@ -28490,7 +28545,7 @@
   </sheetPr>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="A3:G11"/>
     </sheetView>
   </sheetViews>
@@ -28509,12 +28564,12 @@
       <c r="A1" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">

--- a/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
+++ b/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3305083E-4531-49CF-9048-8E5F45F4D5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EE2EA-D6C1-4689-BC43-8A36BA1A11C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,9 +472,6 @@
     <t>2:58.70</t>
   </si>
   <si>
-    <t>Deansie Brady</t>
-  </si>
-  <si>
     <t>3:11.82</t>
   </si>
   <si>
@@ -672,12 +669,15 @@
   <si>
     <t>https://www.facebook.com/events/196320811461109/permalink/200026074423916/</t>
   </si>
+  <si>
+    <t>Jamie Brady (Deansie)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -793,6 +793,12 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -821,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,9 +961,10 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1180,7 +1187,7 @@
   <dimension ref="A1:L1060"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1266,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>18</v>
@@ -1275,7 +1282,7 @@
         <v>13.73</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" s="19">
         <v>15.99</v>
@@ -1343,7 +1350,7 @@
         <v>14.53</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="19">
         <v>14.55</v>
@@ -1378,7 +1385,7 @@
         <v>15.64</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" s="19">
         <v>14.75</v>
@@ -1413,7 +1420,7 @@
         <v>18.48</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="19">
         <v>18.55</v>
@@ -1742,8 +1749,8 @@
       <c r="A18" s="32">
         <v>15</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>146</v>
+      <c r="B18" s="62" t="s">
+        <v>212</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>18</v>
@@ -1767,7 +1774,7 @@
         <v>24.61</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1834,7 +1841,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1842,7 +1849,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>19</v>
@@ -1866,7 +1873,7 @@
         <v>26.02</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1898,7 +1905,7 @@
         <v>27.27</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1933,7 +1940,7 @@
         <v>27.3</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1968,7 +1975,7 @@
         <v>31.57</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1976,7 +1983,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>35</v>
@@ -2000,7 +2007,7 @@
         <v>32.08</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -2008,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>35</v>
@@ -2032,7 +2039,7 @@
         <v>37.72</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="56" customFormat="1" ht="12.75">
@@ -2040,12 +2047,12 @@
         <v>24</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="59">
         <v>47.4</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -2067,7 +2074,7 @@
         <v>52.9</v>
       </c>
       <c r="K27" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
@@ -2075,13 +2082,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>30</v>
@@ -2096,13 +2103,13 @@
         <v>39.49</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>24</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -13580,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>18</v>
@@ -13589,7 +13596,7 @@
         <v>4.55</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="19">
         <v>4.6900000000000004</v>
@@ -13624,7 +13631,7 @@
         <v>5.08</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5" s="19">
         <v>5.96</v>
@@ -13659,7 +13666,7 @@
         <v>5.17</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="19">
         <v>4.6399999999999997</v>
@@ -13726,7 +13733,7 @@
         <v>5.83</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="19">
         <v>5.09</v>
@@ -14057,7 +14064,7 @@
         <v>9.85</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -14092,7 +14099,7 @@
         <v>11.32</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -14100,7 +14107,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>35</v>
@@ -14124,7 +14131,7 @@
         <v>13.71</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -14132,7 +14139,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>19</v>
@@ -14159,7 +14166,7 @@
         <v>16.28</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -20651,7 +20658,7 @@
         <v>53.3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="17">
         <v>48.44</v>
@@ -20713,7 +20720,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>18</v>
@@ -20756,7 +20763,7 @@
         <v>56.44</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" s="15">
         <v>50.41</v>
@@ -20791,7 +20798,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>52</v>
@@ -21018,7 +21025,7 @@
         <v>120</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -21108,22 +21115,22 @@
         <v>145</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -21143,13 +21150,13 @@
         <v>30</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>128</v>
@@ -21158,7 +21165,7 @@
         <v>128</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
@@ -21176,10 +21183,10 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>128</v>
@@ -21191,7 +21198,7 @@
         <v>128</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
@@ -21199,7 +21206,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>19</v>
@@ -21211,10 +21218,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>169</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>128</v>
@@ -21226,7 +21233,7 @@
         <v>128</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -21234,7 +21241,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>35</v>
@@ -21243,10 +21250,10 @@
         <v>24</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>128</v>
@@ -21258,7 +21265,7 @@
         <v>128</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -28562,14 +28569,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
@@ -28591,16 +28598,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>186</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -28608,7 +28615,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>18</v>
@@ -28617,10 +28624,10 @@
         <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -28637,10 +28644,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -28648,7 +28655,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>35</v>
@@ -28657,10 +28664,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -28668,7 +28675,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>18</v>
@@ -28680,7 +28687,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -28697,7 +28704,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -28705,7 +28712,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>35</v>
@@ -28714,10 +28721,10 @@
         <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -28735,7 +28742,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75">
@@ -28753,7 +28760,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75">

--- a/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
+++ b/data/2020-02-25/Senior Cubers Worldwide - Weekly Competition - 2020-02-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EE2EA-D6C1-4689-BC43-8A36BA1A11C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12B2C44-02CC-429A-9741-B8D25BB3D538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -466,9 +466,6 @@
     <t>https://www.facebook.com/events/2972213492840148/permalink/2982607318467432/</t>
   </si>
   <si>
-    <t>장준호</t>
-  </si>
-  <si>
     <t>2:58.70</t>
   </si>
   <si>
@@ -671,6 +668,9 @@
   </si>
   <si>
     <t>Jamie Brady (Deansie)</t>
+  </si>
+  <si>
+    <t>Jang Junho (장준호)</t>
   </si>
 </sst>
 </file>
@@ -962,9 +962,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1186,8 +1186,8 @@
   </sheetPr>
   <dimension ref="A1:L1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>18</v>
@@ -1282,7 +1282,7 @@
         <v>13.73</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="19">
         <v>15.99</v>
@@ -1350,7 +1350,7 @@
         <v>14.53</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" s="19">
         <v>14.55</v>
@@ -1385,7 +1385,7 @@
         <v>15.64</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" s="19">
         <v>14.75</v>
@@ -1420,7 +1420,7 @@
         <v>18.48</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="19">
         <v>18.55</v>
@@ -1749,8 +1749,8 @@
       <c r="A18" s="32">
         <v>15</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>212</v>
+      <c r="B18" s="60" t="s">
+        <v>211</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>18</v>
@@ -1774,7 +1774,7 @@
         <v>24.61</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1841,7 +1841,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1849,7 +1849,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>19</v>
@@ -1873,7 +1873,7 @@
         <v>26.02</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1881,7 +1881,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>19</v>
@@ -1905,7 +1905,7 @@
         <v>27.27</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1940,7 +1940,7 @@
         <v>27.3</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1975,7 +1975,7 @@
         <v>31.57</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1983,7 +1983,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>35</v>
@@ -2007,7 +2007,7 @@
         <v>32.08</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -2015,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>35</v>
@@ -2039,7 +2039,7 @@
         <v>37.72</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="56" customFormat="1" ht="12.75">
@@ -2047,7 +2047,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>35</v>
@@ -2074,7 +2074,7 @@
         <v>52.9</v>
       </c>
       <c r="K27" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
@@ -2082,13 +2082,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>30</v>
@@ -2103,13 +2103,13 @@
         <v>39.49</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>24</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -13500,8 +13500,8 @@
   </sheetPr>
   <dimension ref="A1:L1039"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13587,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>18</v>
@@ -13596,7 +13596,7 @@
         <v>4.55</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="19">
         <v>4.6900000000000004</v>
@@ -13631,7 +13631,7 @@
         <v>5.08</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="19">
         <v>5.96</v>
@@ -13666,7 +13666,7 @@
         <v>5.17</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="19">
         <v>4.6399999999999997</v>
@@ -13733,7 +13733,7 @@
         <v>5.83</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="19">
         <v>5.09</v>
@@ -14040,7 +14040,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>19</v>
@@ -14064,7 +14064,7 @@
         <v>9.85</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -14099,7 +14099,7 @@
         <v>11.32</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -14107,7 +14107,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>35</v>
@@ -14131,7 +14131,7 @@
         <v>13.71</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -14139,7 +14139,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>19</v>
@@ -14166,7 +14166,7 @@
         <v>16.28</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -20563,7 +20563,7 @@
   <dimension ref="A1:L1038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20658,7 +20658,7 @@
         <v>53.3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="17">
         <v>48.44</v>
@@ -20720,7 +20720,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>18</v>
@@ -20763,7 +20763,7 @@
         <v>56.44</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7" s="15">
         <v>50.41</v>
@@ -20798,7 +20798,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>52</v>
@@ -21025,7 +21025,7 @@
         <v>120</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -21106,31 +21106,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -21150,13 +21150,13 @@
         <v>30</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>128</v>
@@ -21165,7 +21165,7 @@
         <v>128</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
@@ -21183,10 +21183,10 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>160</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>128</v>
@@ -21198,7 +21198,7 @@
         <v>128</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
@@ -21206,7 +21206,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>19</v>
@@ -21218,10 +21218,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>167</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>128</v>
@@ -21233,7 +21233,7 @@
         <v>128</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -21241,7 +21241,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>35</v>
@@ -21250,10 +21250,10 @@
         <v>24</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>128</v>
@@ -21265,7 +21265,7 @@
         <v>128</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -28569,14 +28569,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
@@ -28598,16 +28598,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>185</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -28615,7 +28615,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>18</v>
@@ -28624,10 +28624,10 @@
         <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -28644,10 +28644,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -28655,7 +28655,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>35</v>
@@ -28664,10 +28664,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -28675,7 +28675,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>18</v>
@@ -28687,7 +28687,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -28704,7 +28704,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -28712,7 +28712,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>35</v>
@@ -28721,10 +28721,10 @@
         <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -28742,7 +28742,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75">
@@ -28760,7 +28760,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75">
